--- a/Api/MySuparApp/Main DB/UserList.xlsx
+++ b/Api/MySuparApp/Main DB/UserList.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,73 +20,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XYS789S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subha6555@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhadip Nayek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re Hot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDAS55S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snayek6555@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re Awesome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Msg</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>XYS789S</t>
+  </si>
+  <si>
+    <t>subha6555@gmail.com</t>
+  </si>
+  <si>
+    <t>Subhadip Nayek</t>
+  </si>
+  <si>
+    <t>You’re Hot</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>VDAS55S</t>
+  </si>
+  <si>
+    <t>snayek6555@gmail.com</t>
+  </si>
+  <si>
+    <t>You’re Awesome</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>fsfs</t>
+  </si>
+  <si>
+    <t>afcds@gmail.com</t>
+  </si>
+  <si>
+    <t>asdas adas</t>
+  </si>
+  <si>
+    <t>sdsa</t>
+  </si>
+  <si>
+    <t>ADDF</t>
+  </si>
+  <si>
+    <t>fsfs55</t>
+  </si>
+  <si>
+    <t>45afcds@gmail.com</t>
+  </si>
+  <si>
+    <t>asda55s adas</t>
+  </si>
+  <si>
+    <t>sds11a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,7 +129,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right/>
       <top/>
@@ -118,56 +137,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -283,25 +273,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.2"/>
+    <col min="1" max="1" width="21.28" customWidth="1" style="1"/>
+    <col min="2" max="3" width="22.81" customWidth="1" style="1"/>
+    <col min="4" max="4" width="19.2" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -314,8 +303,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="12.8">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -331,8 +320,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="12.8">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -348,10 +337,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="subha6555@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="snayek6555@gmail.com"/>
+    <hyperlink ref="B2" display="subha6555@gmail.com" r:id="rId1"/>
+    <hyperlink ref="B3" display="snayek6555@gmail.com" r:id="rId2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api/MySuparApp/Main DB/UserList.xlsx
+++ b/Api/MySuparApp/Main DB/UserList.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,92 +20,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Msg</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>XYS789S</t>
-  </si>
-  <si>
-    <t>subha6555@gmail.com</t>
-  </si>
-  <si>
-    <t>Subhadip Nayek</t>
-  </si>
-  <si>
-    <t>You’re Hot</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>VDAS55S</t>
-  </si>
-  <si>
-    <t>snayek6555@gmail.com</t>
-  </si>
-  <si>
-    <t>You’re Awesome</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>fsfs</t>
-  </si>
-  <si>
-    <t>afcds@gmail.com</t>
-  </si>
-  <si>
-    <t>asdas adas</t>
-  </si>
-  <si>
-    <t>sdsa</t>
-  </si>
-  <si>
-    <t>ADDF</t>
-  </si>
-  <si>
-    <t>fsfs55</t>
-  </si>
-  <si>
-    <t>45afcds@gmail.com</t>
-  </si>
-  <si>
-    <t>asda55s adas</t>
-  </si>
-  <si>
-    <t>sds11a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subha6555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subha6555@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhadip Nayek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re Hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fury@6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snayek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snayek6555@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re Awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afcds@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdas adas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsfs55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45afcds@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asda55s adas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sds11a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,7 +143,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="1" diagonalDown="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -137,27 +151,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -273,20 +320,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.28" customWidth="1" style="1"/>
-    <col min="2" max="3" width="22.81" customWidth="1" style="1"/>
-    <col min="4" max="4" width="19.2" customWidth="1" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -302,79 +349,98 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="12.8">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="subha6555@gmail.com" r:id="rId1"/>
-    <hyperlink ref="B3" display="snayek6555@gmail.com" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" display="subha6555@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="fury@6666"/>
+    <hyperlink ref="B3" r:id="rId3" display="snayek6555@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId4" display="fury@6666"/>
+    <hyperlink ref="F4" r:id="rId5" display="fury@6666"/>
+    <hyperlink ref="F5" r:id="rId6" display="fury@6666"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
